--- a/BackTest/2019-10-28 BackTest MTL.xlsx
+++ b/BackTest/2019-10-28 BackTest MTL.xlsx
@@ -6261,13 +6261,17 @@
         <v>367.15</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>366</v>
+      </c>
+      <c r="K168" t="n">
+        <v>366</v>
+      </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
@@ -6296,14 +6300,22 @@
         <v>367.25</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>368</v>
+      </c>
+      <c r="K169" t="n">
+        <v>366</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +6343,22 @@
         <v>367.25</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>368</v>
+      </c>
+      <c r="K170" t="n">
+        <v>366</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6366,13 +6386,17 @@
         <v>367.15</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>368</v>
+      </c>
+      <c r="K171" t="n">
+        <v>368</v>
+      </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
@@ -6401,14 +6425,22 @@
         <v>367.2</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>367</v>
+      </c>
+      <c r="K172" t="n">
+        <v>368</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6436,14 +6468,22 @@
         <v>367.2</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>368</v>
+      </c>
+      <c r="K173" t="n">
+        <v>368</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6517,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>368</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6558,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>368</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>368</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>368</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6681,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>368</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6722,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>368</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6763,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>368</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>368</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>368</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>368</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +6927,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>368</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +6968,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>368</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>368</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7050,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>368</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7091,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>368</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7132,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>368</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7173,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>368</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7214,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>368</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7255,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>368</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7296,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>368</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7337,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>368</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7378,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>368</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7419,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>368</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +7460,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>368</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>368</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7542,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>368</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7583,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>368</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7624,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>368</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7665,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>368</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7706,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>368</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>368</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7788,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>368</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7829,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>368</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>368</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>368</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7952,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>368</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>368</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8034,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>368</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +8075,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>368</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>368</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8157,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>368</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>368</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>368</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>368</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +8321,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>368</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>368</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +8403,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>368</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>368</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>368</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>368</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8567,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>368</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>368</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8297,8 +8649,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>368</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +8690,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>368</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8367,8 +8731,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>368</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8402,8 +8772,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>368</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8437,8 +8813,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>368</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8472,8 +8854,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>368</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8507,8 +8895,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>368</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +8936,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>368</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8571,18 +8971,18 @@
         <v>366.15</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>366</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>368</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -8612,15 +9012,15 @@
         <v>366</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>365</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>368</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8653,15 +9053,15 @@
         <v>365.95</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>366</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>368</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,15 +9094,15 @@
         <v>365.9</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>366</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>368</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,15 +9135,15 @@
         <v>365.9</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>366</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>368</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8776,15 +9176,15 @@
         <v>365.8</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>366</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>368</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,15 +9217,15 @@
         <v>365.7</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>366</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>368</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,15 +9258,15 @@
         <v>365.5</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>365</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>368</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,15 +9299,15 @@
         <v>365.35</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>366</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>368</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,15 +9340,15 @@
         <v>365.35</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>365</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>368</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,15 +9381,15 @@
         <v>365.25</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>364</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>368</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,15 +9422,15 @@
         <v>365.25</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>365</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>368</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9063,15 +9463,15 @@
         <v>365.2</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>364</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>368</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,15 +9504,15 @@
         <v>365.2</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>366</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>368</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,15 +9545,15 @@
         <v>365.25</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>366</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>368</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,15 +9586,15 @@
         <v>365.3</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>366</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>368</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9227,15 +9627,15 @@
         <v>365.35</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>365</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>368</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9268,15 +9668,15 @@
         <v>365.3</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>365</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>368</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9309,15 +9709,15 @@
         <v>365.55</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>369</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>368</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,15 +9750,15 @@
         <v>365.7</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>367</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>368</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,7 +9797,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>368</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,7 +9838,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>368</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9475,7 +9879,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>368</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,7 +9920,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>368</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9553,7 +9961,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>368</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9586,15 +9996,15 @@
         <v>365.95</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>367</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>368</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9627,15 +10037,15 @@
         <v>366</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>367</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>368</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9674,7 +10084,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>368</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9707,15 +10119,15 @@
         <v>365.9</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>365</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>368</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9748,15 +10160,15 @@
         <v>365.8</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>363</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>368</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9789,15 +10201,15 @@
         <v>365.85</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>365</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>368</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9830,15 +10242,15 @@
         <v>365.75</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>363</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>368</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9871,15 +10283,15 @@
         <v>365.65</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>362</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>368</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9912,15 +10324,15 @@
         <v>365.45</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>362</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>368</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9953,15 +10365,15 @@
         <v>365.2</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>361</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>368</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9994,15 +10406,15 @@
         <v>365.1</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>364</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>368</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10035,15 +10447,15 @@
         <v>364.95</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>362</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>368</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10076,15 +10488,15 @@
         <v>364.9</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>364</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>368</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10117,15 +10529,15 @@
         <v>364.65</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>364</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>368</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10158,15 +10570,15 @@
         <v>364.4</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>362</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>368</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10199,15 +10611,15 @@
         <v>364.3</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>365</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>368</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10240,15 +10652,15 @@
         <v>364.2</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>365</v>
-      </c>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>368</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,15 +10693,15 @@
         <v>364.1</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>365</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>368</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10322,15 +10734,15 @@
         <v>364.15</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>367</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>368</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10363,15 +10775,15 @@
         <v>364.1</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>365</v>
-      </c>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>368</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10404,15 +10816,15 @@
         <v>364.05</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>366</v>
-      </c>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>368</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10445,15 +10857,15 @@
         <v>363.95</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>365</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>368</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10486,15 +10898,15 @@
         <v>364.05</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>366</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>368</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10527,15 +10939,15 @@
         <v>364.1</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>366</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>368</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10568,15 +10980,15 @@
         <v>364.35</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>368</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>368</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,15 +11021,15 @@
         <v>364.4</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>366</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>368</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10650,15 +11062,15 @@
         <v>364.55</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>366</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>368</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,15 +11103,15 @@
         <v>364.8</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>367</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>368</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,15 +11144,15 @@
         <v>365.05</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>367</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>368</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10773,15 +11185,15 @@
         <v>365.3</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>366</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>368</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10814,15 +11226,15 @@
         <v>365.4</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>366</v>
-      </c>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>368</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10855,15 +11267,15 @@
         <v>365.55</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>365</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>368</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10896,15 +11308,15 @@
         <v>365.6</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>365</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>368</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10937,15 +11349,15 @@
         <v>365.65</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>365</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>368</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10978,15 +11390,15 @@
         <v>365.8</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>365</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>368</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11019,15 +11431,15 @@
         <v>365.8</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>365</v>
-      </c>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>368</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11060,15 +11472,15 @@
         <v>365.8</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>365</v>
-      </c>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>368</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,15 +11513,15 @@
         <v>365.8</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>365</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>368</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11142,15 +11554,15 @@
         <v>365.75</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>366</v>
-      </c>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>368</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11183,15 +11595,15 @@
         <v>365.75</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>365</v>
-      </c>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>368</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11224,15 +11636,15 @@
         <v>365.8</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>367</v>
-      </c>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>368</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,15 +11677,15 @@
         <v>365.9</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>367</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>368</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,15 +11718,15 @@
         <v>365.95</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>367</v>
-      </c>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>368</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11347,15 +11759,15 @@
         <v>366</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>367</v>
-      </c>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>368</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11388,15 +11800,15 @@
         <v>365.9</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>366</v>
-      </c>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>368</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11429,15 +11841,15 @@
         <v>365.85</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>365</v>
-      </c>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>368</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,15 +11882,15 @@
         <v>365.85</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>366</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>368</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11511,15 +11923,15 @@
         <v>365.8</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>366</v>
-      </c>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>368</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11552,15 +11964,15 @@
         <v>365.75</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>366</v>
-      </c>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>368</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11593,15 +12005,15 @@
         <v>365.8</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>367</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>368</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11634,15 +12046,15 @@
         <v>365.85</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>367</v>
-      </c>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>368</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11675,15 +12087,15 @@
         <v>365.9</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>366</v>
-      </c>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>368</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11716,15 +12128,15 @@
         <v>366</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>367</v>
-      </c>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>368</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11757,15 +12169,15 @@
         <v>366.1</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>367</v>
-      </c>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>368</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11798,15 +12210,15 @@
         <v>366.2</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>367</v>
-      </c>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>368</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11845,7 +12257,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>368</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11884,7 +12298,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>368</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11923,7 +12339,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>368</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11962,7 +12380,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>368</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12001,7 +12421,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>368</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12040,7 +12462,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>368</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12079,7 +12503,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>368</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12118,7 +12544,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>368</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12157,7 +12585,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>368</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12196,7 +12626,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>368</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12235,7 +12667,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>368</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12274,7 +12708,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>368</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12313,7 +12749,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>368</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12352,7 +12790,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>368</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12391,7 +12831,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>368</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12430,7 +12872,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>368</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12469,7 +12913,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>368</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12508,7 +12954,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>368</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12547,7 +12995,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>368</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12586,7 +13036,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>368</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12625,7 +13077,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>368</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12664,7 +13118,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>368</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12703,7 +13159,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>368</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12742,7 +13200,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>368</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12781,7 +13241,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>368</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12820,7 +13282,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>368</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12859,7 +13323,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>368</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,7 +13364,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>368</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12937,7 +13405,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>368</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12976,7 +13446,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>368</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13015,7 +13487,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>368</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13054,7 +13528,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>368</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13093,7 +13569,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>368</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13132,7 +13610,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>368</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13171,7 +13651,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>368</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13210,7 +13692,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>368</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13249,7 +13733,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>368</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13288,7 +13774,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>368</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13327,7 +13815,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>368</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13366,7 +13856,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>368</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13405,7 +13897,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>368</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13444,7 +13938,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>368</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13483,7 +13979,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>368</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13522,7 +14020,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>368</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13561,7 +14061,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>368</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,7 +14102,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>368</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13639,7 +14143,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>368</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13678,7 +14184,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>368</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13717,7 +14225,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>368</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13756,7 +14266,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>368</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13795,7 +14307,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>368</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13834,7 +14348,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>368</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13873,7 +14389,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>368</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13912,7 +14430,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>368</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13951,7 +14471,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>368</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13990,7 +14512,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>368</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14029,7 +14553,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>368</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14068,7 +14594,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>368</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14107,7 +14635,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>368</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,7 +14676,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>368</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14185,7 +14717,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>368</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14224,7 +14758,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>368</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14263,7 +14799,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>368</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14302,7 +14840,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>368</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14341,7 +14881,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>368</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14380,7 +14922,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>368</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14419,7 +14963,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>368</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14458,7 +15004,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>368</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14497,7 +15045,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>368</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14536,7 +15086,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>368</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14575,7 +15127,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>368</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14614,7 +15168,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>368</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14653,7 +15209,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>368</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14692,7 +15250,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>368</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14731,7 +15291,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>368</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14770,7 +15332,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>368</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14809,7 +15373,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>368</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14848,7 +15414,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>368</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14887,7 +15455,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>368</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14926,7 +15496,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>368</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14965,7 +15537,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>368</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15004,7 +15578,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>368</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15043,7 +15619,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>368</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15082,7 +15660,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>368</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15121,7 +15701,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>368</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15160,7 +15742,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>368</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15199,7 +15783,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>368</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15238,7 +15824,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>368</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15277,7 +15865,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>368</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15316,7 +15906,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>368</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15355,7 +15947,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>368</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15394,7 +15988,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>368</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15433,7 +16029,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>368</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15472,7 +16070,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>368</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15511,7 +16111,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>368</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15550,7 +16152,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>368</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15589,7 +16193,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>368</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15628,7 +16234,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>368</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15667,7 +16275,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>368</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15706,7 +16316,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>368</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15745,7 +16357,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>368</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15784,7 +16398,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>368</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15823,7 +16439,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>368</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15862,7 +16480,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>368</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15901,7 +16521,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>368</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15940,7 +16562,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>368</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15979,7 +16603,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>368</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16018,7 +16644,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>368</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16057,7 +16685,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>368</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16096,7 +16726,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>368</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16135,7 +16767,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>368</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16174,7 +16808,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>368</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16213,7 +16849,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>368</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16252,7 +16890,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>368</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,7 +16931,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>368</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,7 +16972,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>368</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16369,7 +17013,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>368</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16408,7 +17054,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>368</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16447,7 +17095,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>368</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16486,7 +17136,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>368</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16525,7 +17177,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>368</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16564,7 +17218,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>368</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16603,7 +17259,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>368</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16642,7 +17300,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>368</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16681,7 +17341,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>368</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16720,7 +17382,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>368</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16759,7 +17423,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>368</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16798,7 +17464,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>368</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16837,7 +17505,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>368</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16876,7 +17546,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>368</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16915,7 +17587,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>368</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16954,7 +17628,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>368</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16993,7 +17669,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>368</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17032,7 +17710,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>368</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17071,7 +17751,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>368</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17110,7 +17792,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>368</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17149,7 +17833,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>368</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17188,7 +17874,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>368</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17227,7 +17915,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>368</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17266,7 +17956,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>368</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17305,7 +17997,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>368</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17344,7 +18038,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>368</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17383,7 +18079,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>368</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17422,7 +18120,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>368</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17461,7 +18161,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>368</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17500,7 +18202,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>368</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17539,7 +18243,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>368</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17578,7 +18284,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>368</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17617,7 +18325,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>368</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17656,7 +18366,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>368</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17695,7 +18407,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>368</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17734,7 +18448,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>368</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17773,7 +18489,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>368</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17812,7 +18530,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>368</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17851,7 +18571,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>368</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17890,7 +18612,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>368</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17929,7 +18653,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>368</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17968,7 +18694,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>368</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18007,7 +18735,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>368</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18046,7 +18776,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>368</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18085,7 +18817,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>368</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18124,7 +18858,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>368</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18163,7 +18899,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>368</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18202,7 +18940,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>368</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18241,7 +18981,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>368</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18280,7 +19022,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>368</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18319,7 +19063,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>368</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18358,7 +19104,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>368</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18397,7 +19145,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>368</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18436,7 +19186,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>368</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18475,7 +19227,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>368</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18514,7 +19268,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>368</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18553,7 +19309,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>368</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18592,7 +19350,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>368</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18631,7 +19391,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>368</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18670,7 +19432,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>368</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18709,7 +19473,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>368</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18748,7 +19514,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>368</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18787,7 +19555,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>368</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18826,7 +19596,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>368</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18865,7 +19637,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>368</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18904,7 +19678,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>368</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18943,7 +19719,9 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>368</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18982,7 +19760,9 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>368</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19021,7 +19801,9 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>368</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19060,7 +19842,9 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>368</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19099,7 +19883,9 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>368</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19138,7 +19924,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>368</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19177,7 +19965,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>368</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19216,7 +20006,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>368</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19255,7 +20047,9 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>368</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19294,7 +20088,9 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>368</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19333,7 +20129,9 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>368</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19372,7 +20170,9 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>368</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19411,7 +20211,9 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>368</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19450,7 +20252,9 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>368</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19489,7 +20293,9 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>368</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19528,7 +20334,9 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>368</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19567,7 +20375,9 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>368</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19606,7 +20416,9 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>368</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19645,7 +20457,9 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>368</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19684,7 +20498,9 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>368</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19723,7 +20539,9 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>368</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19762,7 +20580,9 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>368</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19801,7 +20621,9 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>368</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19840,7 +20662,9 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>368</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19879,7 +20703,9 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>368</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19918,7 +20744,9 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>368</v>
+      </c>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19957,7 +20785,9 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>368</v>
+      </c>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19996,7 +20826,9 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>368</v>
+      </c>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20035,7 +20867,9 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>368</v>
+      </c>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20074,7 +20908,9 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>368</v>
+      </c>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20113,7 +20949,9 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>368</v>
+      </c>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20152,7 +20990,9 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>368</v>
+      </c>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20191,7 +21031,9 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>368</v>
+      </c>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20230,7 +21072,9 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>368</v>
+      </c>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20269,7 +21113,9 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>368</v>
+      </c>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20308,7 +21154,9 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>368</v>
+      </c>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20347,7 +21195,9 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>368</v>
+      </c>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20386,7 +21236,9 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>368</v>
+      </c>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20425,7 +21277,9 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>368</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20464,7 +21318,9 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>368</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20503,7 +21359,9 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>368</v>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20542,7 +21400,9 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>368</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20581,7 +21441,9 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>368</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20620,7 +21482,9 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>368</v>
+      </c>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20659,7 +21523,9 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>368</v>
+      </c>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20698,7 +21564,9 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>368</v>
+      </c>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20737,7 +21605,9 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>368</v>
+      </c>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20776,7 +21646,9 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>368</v>
+      </c>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20815,7 +21687,9 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>368</v>
+      </c>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20854,7 +21728,9 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>368</v>
+      </c>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20893,7 +21769,9 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>368</v>
+      </c>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20932,7 +21810,9 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>368</v>
+      </c>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20971,7 +21851,9 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>368</v>
+      </c>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21010,7 +21892,9 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>368</v>
+      </c>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21049,7 +21933,9 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>368</v>
+      </c>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21088,7 +21974,9 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>368</v>
+      </c>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21127,7 +22015,9 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>368</v>
+      </c>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21166,7 +22056,9 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>368</v>
+      </c>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21205,7 +22097,9 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>368</v>
+      </c>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21244,7 +22138,9 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>368</v>
+      </c>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21283,7 +22179,9 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>368</v>
+      </c>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21322,7 +22220,9 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>368</v>
+      </c>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21361,7 +22261,9 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>368</v>
+      </c>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21400,7 +22302,9 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>368</v>
+      </c>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21439,7 +22343,9 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>368</v>
+      </c>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21478,7 +22384,9 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>368</v>
+      </c>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21517,7 +22425,9 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>368</v>
+      </c>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21556,7 +22466,9 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>368</v>
+      </c>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21595,7 +22507,9 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>368</v>
+      </c>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21634,7 +22548,9 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>368</v>
+      </c>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21673,7 +22589,9 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>368</v>
+      </c>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21712,7 +22630,9 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>368</v>
+      </c>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21751,7 +22671,9 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>368</v>
+      </c>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21790,7 +22712,9 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>368</v>
+      </c>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21829,7 +22753,9 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>368</v>
+      </c>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21868,7 +22794,9 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>368</v>
+      </c>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21907,7 +22835,9 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>368</v>
+      </c>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21946,7 +22876,9 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>368</v>
+      </c>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21985,7 +22917,9 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>368</v>
+      </c>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22024,7 +22958,9 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>368</v>
+      </c>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22063,7 +22999,9 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>368</v>
+      </c>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22102,7 +23040,9 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>368</v>
+      </c>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22141,7 +23081,9 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>368</v>
+      </c>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22180,7 +23122,9 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>368</v>
+      </c>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22219,7 +23163,9 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>368</v>
+      </c>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22258,7 +23204,9 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>368</v>
+      </c>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22297,7 +23245,9 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>368</v>
+      </c>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22336,7 +23286,9 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>368</v>
+      </c>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22375,7 +23327,9 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>368</v>
+      </c>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22414,7 +23368,9 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>368</v>
+      </c>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22453,7 +23409,9 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>368</v>
+      </c>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22492,7 +23450,9 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>368</v>
+      </c>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22531,7 +23491,9 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>368</v>
+      </c>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22570,7 +23532,9 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>368</v>
+      </c>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22609,7 +23573,9 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>368</v>
+      </c>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22648,7 +23614,9 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>368</v>
+      </c>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22687,7 +23655,9 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>368</v>
+      </c>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22726,7 +23696,9 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>368</v>
+      </c>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22765,7 +23737,9 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>368</v>
+      </c>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22804,7 +23778,9 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>368</v>
+      </c>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22843,7 +23819,9 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>368</v>
+      </c>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22882,7 +23860,9 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>368</v>
+      </c>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22921,7 +23901,9 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>368</v>
+      </c>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22960,7 +23942,9 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>368</v>
+      </c>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22999,7 +23983,9 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>368</v>
+      </c>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23038,7 +24024,9 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>368</v>
+      </c>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23077,7 +24065,9 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>368</v>
+      </c>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23116,7 +24106,9 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>368</v>
+      </c>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23155,7 +24147,9 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>368</v>
+      </c>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23194,7 +24188,9 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>368</v>
+      </c>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23233,7 +24229,9 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>368</v>
+      </c>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23272,7 +24270,9 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>368</v>
+      </c>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23311,7 +24311,9 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>368</v>
+      </c>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23350,7 +24352,9 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>368</v>
+      </c>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23389,7 +24393,9 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>368</v>
+      </c>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23428,7 +24434,9 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>368</v>
+      </c>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23467,7 +24475,9 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>368</v>
+      </c>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23506,7 +24516,9 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>368</v>
+      </c>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23545,7 +24557,9 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>368</v>
+      </c>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23584,7 +24598,9 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>368</v>
+      </c>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23623,7 +24639,9 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>368</v>
+      </c>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23662,7 +24680,9 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>368</v>
+      </c>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23701,7 +24721,9 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>368</v>
+      </c>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23740,7 +24762,9 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>368</v>
+      </c>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23779,7 +24803,9 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>368</v>
+      </c>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23818,7 +24844,9 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>368</v>
+      </c>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23857,7 +24885,9 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>368</v>
+      </c>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23896,7 +24926,9 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>368</v>
+      </c>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23935,7 +24967,9 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>368</v>
+      </c>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23974,7 +25008,9 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>368</v>
+      </c>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24013,7 +25049,9 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>368</v>
+      </c>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24052,7 +25090,9 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>368</v>
+      </c>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24091,7 +25131,9 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>368</v>
+      </c>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24130,7 +25172,9 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>368</v>
+      </c>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24169,7 +25213,9 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>368</v>
+      </c>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24208,7 +25254,9 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>368</v>
+      </c>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24247,7 +25295,9 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>368</v>
+      </c>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24286,7 +25336,9 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>368</v>
+      </c>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24325,7 +25377,9 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>368</v>
+      </c>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24364,7 +25418,9 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>368</v>
+      </c>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24403,7 +25459,9 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>368</v>
+      </c>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24442,7 +25500,9 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>368</v>
+      </c>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24481,7 +25541,9 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>368</v>
+      </c>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24520,7 +25582,9 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>368</v>
+      </c>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24559,7 +25623,9 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>368</v>
+      </c>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24598,7 +25664,9 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>368</v>
+      </c>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24637,7 +25705,9 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>368</v>
+      </c>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24676,7 +25746,9 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>368</v>
+      </c>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24715,7 +25787,9 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>368</v>
+      </c>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24754,7 +25828,9 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>368</v>
+      </c>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24793,7 +25869,9 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>368</v>
+      </c>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24832,7 +25910,9 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>368</v>
+      </c>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24871,7 +25951,9 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>368</v>
+      </c>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24910,7 +25992,9 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>368</v>
+      </c>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24949,7 +26033,9 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>368</v>
+      </c>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24988,7 +26074,9 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>368</v>
+      </c>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25027,7 +26115,9 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>368</v>
+      </c>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25066,7 +26156,9 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>368</v>
+      </c>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25105,7 +26197,9 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>368</v>
+      </c>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25144,7 +26238,9 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>368</v>
+      </c>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25183,7 +26279,9 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>368</v>
+      </c>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25222,7 +26320,9 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>368</v>
+      </c>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25261,7 +26361,9 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>368</v>
+      </c>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25300,7 +26402,9 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>368</v>
+      </c>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25339,7 +26443,9 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>368</v>
+      </c>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25378,7 +26484,9 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>368</v>
+      </c>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25417,7 +26525,9 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>368</v>
+      </c>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25456,7 +26566,9 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>368</v>
+      </c>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25495,7 +26607,9 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>368</v>
+      </c>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25534,7 +26648,9 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>368</v>
+      </c>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25573,7 +26689,9 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>368</v>
+      </c>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25612,7 +26730,9 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>368</v>
+      </c>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25651,7 +26771,9 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>368</v>
+      </c>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25690,7 +26812,9 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>368</v>
+      </c>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25729,7 +26853,9 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>368</v>
+      </c>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25768,7 +26894,9 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>368</v>
+      </c>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25807,7 +26935,9 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>368</v>
+      </c>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25846,7 +26976,9 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>368</v>
+      </c>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25885,7 +27017,9 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>368</v>
+      </c>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25924,7 +27058,9 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>368</v>
+      </c>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25963,7 +27099,9 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>368</v>
+      </c>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26002,7 +27140,9 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>368</v>
+      </c>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26041,7 +27181,9 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>368</v>
+      </c>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26080,7 +27222,9 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>368</v>
+      </c>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26119,7 +27263,9 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>368</v>
+      </c>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26158,7 +27304,9 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>368</v>
+      </c>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26197,7 +27345,9 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>368</v>
+      </c>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26236,7 +27386,9 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>368</v>
+      </c>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26275,7 +27427,9 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>368</v>
+      </c>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26314,7 +27468,9 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>368</v>
+      </c>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26353,7 +27509,9 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>368</v>
+      </c>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26392,7 +27550,9 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>368</v>
+      </c>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26431,7 +27591,9 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>368</v>
+      </c>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26470,7 +27632,9 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>368</v>
+      </c>
       <c r="L689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26509,7 +27673,9 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>368</v>
+      </c>
       <c r="L690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26548,7 +27714,9 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>368</v>
+      </c>
       <c r="L691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26587,7 +27755,9 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>368</v>
+      </c>
       <c r="L692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26626,7 +27796,9 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>368</v>
+      </c>
       <c r="L693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26665,7 +27837,9 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>368</v>
+      </c>
       <c r="L694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26704,7 +27878,9 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>368</v>
+      </c>
       <c r="L695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26743,7 +27919,9 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>368</v>
+      </c>
       <c r="L696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26782,7 +27960,9 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>368</v>
+      </c>
       <c r="L697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26821,7 +28001,9 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>368</v>
+      </c>
       <c r="L698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26860,7 +28042,9 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>368</v>
+      </c>
       <c r="L699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26899,7 +28083,9 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>368</v>
+      </c>
       <c r="L700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26938,7 +28124,9 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>368</v>
+      </c>
       <c r="L701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26977,7 +28165,9 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>368</v>
+      </c>
       <c r="L702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27016,7 +28206,9 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>368</v>
+      </c>
       <c r="L703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27055,7 +28247,9 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>368</v>
+      </c>
       <c r="L704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27094,7 +28288,9 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>368</v>
+      </c>
       <c r="L705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27133,7 +28329,9 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>368</v>
+      </c>
       <c r="L706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27172,7 +28370,9 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>368</v>
+      </c>
       <c r="L707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27211,7 +28411,9 @@
         <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>368</v>
+      </c>
       <c r="L708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27250,7 +28452,9 @@
         <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>368</v>
+      </c>
       <c r="L709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27289,7 +28493,9 @@
         <v>0</v>
       </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>368</v>
+      </c>
       <c r="L710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27328,7 +28534,9 @@
         <v>0</v>
       </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>368</v>
+      </c>
       <c r="L711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27367,7 +28575,9 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>368</v>
+      </c>
       <c r="L712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27406,7 +28616,9 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>368</v>
+      </c>
       <c r="L713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27445,7 +28657,9 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>368</v>
+      </c>
       <c r="L714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27484,7 +28698,9 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>368</v>
+      </c>
       <c r="L715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27523,7 +28739,9 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>368</v>
+      </c>
       <c r="L716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27562,7 +28780,9 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>368</v>
+      </c>
       <c r="L717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27601,7 +28821,9 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>368</v>
+      </c>
       <c r="L718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27640,7 +28862,9 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>368</v>
+      </c>
       <c r="L719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27679,7 +28903,9 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>368</v>
+      </c>
       <c r="L720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27718,7 +28944,9 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>368</v>
+      </c>
       <c r="L721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27757,7 +28985,9 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>368</v>
+      </c>
       <c r="L722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27796,7 +29026,9 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>368</v>
+      </c>
       <c r="L723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27835,7 +29067,9 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>368</v>
+      </c>
       <c r="L724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27874,7 +29108,9 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>368</v>
+      </c>
       <c r="L725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27913,7 +29149,9 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>368</v>
+      </c>
       <c r="L726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27952,7 +29190,9 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>368</v>
+      </c>
       <c r="L727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27988,16 +29228,20 @@
         <v>0</v>
       </c>
       <c r="I728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>368</v>
+      </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M728" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M728" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -28028,8 +29272,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>368</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -28060,11 +29310,17 @@
         <v>0</v>
       </c>
       <c r="I730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>368</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -28095,11 +29351,17 @@
         <v>0</v>
       </c>
       <c r="I731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>368</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -28130,11 +29392,17 @@
         <v>0</v>
       </c>
       <c r="I732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>368</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -28165,11 +29433,17 @@
         <v>0</v>
       </c>
       <c r="I733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>368</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -28203,8 +29477,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>368</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -28238,8 +29518,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>368</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -28273,8 +29559,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>368</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28308,8 +29600,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>368</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -28343,8 +29641,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>368</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -28378,8 +29682,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>368</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -28413,8 +29723,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>368</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -28448,8 +29764,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>368</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -28483,8 +29805,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>368</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -28518,8 +29846,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>368</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -28553,8 +29887,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>368</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -28588,8 +29928,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>368</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -28623,8 +29969,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>368</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28658,8 +30010,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>368</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28693,8 +30051,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>368</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28728,8 +30092,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>368</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28763,8 +30133,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>368</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28798,8 +30174,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>368</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28833,8 +30215,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>368</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28868,8 +30256,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>368</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28903,8 +30297,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>368</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28938,8 +30338,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>368</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28973,8 +30379,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>368</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -29008,8 +30420,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>368</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -29043,8 +30461,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>368</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -29078,8 +30502,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>368</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -29113,8 +30543,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>368</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -29148,8 +30584,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>368</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -29183,8 +30625,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>368</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -29218,8 +30666,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>368</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -29253,8 +30707,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>368</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -29288,8 +30748,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>368</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -29323,8 +30789,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>368</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -29358,8 +30830,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>368</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -29393,8 +30871,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>368</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -29428,8 +30912,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>368</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -29463,8 +30953,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>368</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -29498,8 +30994,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>368</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -29533,8 +31035,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>368</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -29568,8 +31076,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>368</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -29603,8 +31117,14 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>368</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -29638,8 +31158,14 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>368</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -29673,8 +31199,14 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>368</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -29708,8 +31240,14 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>368</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -29743,8 +31281,14 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>368</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29778,8 +31322,14 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>368</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29813,8 +31363,14 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>368</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29848,8 +31404,14 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>368</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29883,8 +31445,14 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>368</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29918,8 +31486,14 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>368</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29953,8 +31527,14 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>368</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29988,8 +31568,14 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>368</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -30023,8 +31609,14 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>368</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -30058,8 +31650,14 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>368</v>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -30093,8 +31691,14 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>368</v>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -30128,8 +31732,14 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>368</v>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -30163,8 +31773,14 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>368</v>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -30198,8 +31814,14 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>368</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -30233,8 +31855,14 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>368</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -30268,8 +31896,14 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>368</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -30303,8 +31937,14 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>368</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -30338,8 +31978,14 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>368</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -30373,8 +32019,14 @@
         <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>368</v>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -30408,8 +32060,14 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>368</v>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -30443,8 +32101,14 @@
         <v>0</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>368</v>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -30478,8 +32142,14 @@
         <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>368</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -30513,8 +32183,14 @@
         <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>368</v>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -30548,8 +32224,14 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>368</v>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -30583,8 +32265,14 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>368</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -30618,8 +32306,14 @@
         <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>368</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -30653,8 +32347,14 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>368</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -30688,8 +32388,14 @@
         <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>368</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -30723,8 +32429,14 @@
         <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>368</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -30758,8 +32470,14 @@
         <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>368</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -30793,8 +32511,14 @@
         <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>368</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -30828,8 +32552,14 @@
         <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>368</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -30863,8 +32593,14 @@
         <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>368</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -30898,8 +32634,14 @@
         <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>368</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -30933,8 +32675,14 @@
         <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>368</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -30968,8 +32716,14 @@
         <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>368</v>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -31003,8 +32757,14 @@
         <v>0</v>
       </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>368</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -31038,8 +32798,14 @@
         <v>0</v>
       </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>368</v>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -31073,8 +32839,14 @@
         <v>0</v>
       </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>368</v>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -31105,13 +32877,19 @@
         <v>0</v>
       </c>
       <c r="I817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>368</v>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M817" t="n">
-        <v>1</v>
+        <v>1.068369565217391</v>
       </c>
     </row>
     <row r="818">
@@ -31140,7 +32918,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
@@ -31175,7 +32953,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
@@ -31210,7 +32988,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
@@ -31245,7 +33023,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest MTL.xlsx
+++ b/BackTest/2019-10-28 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-24322.96528722</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-21830.12808722</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>362</v>
@@ -523,7 +523,7 @@
         <v>-17821.17098722</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>363</v>
@@ -562,7 +562,7 @@
         <v>-17844.73138722</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>364</v>
@@ -601,7 +601,7 @@
         <v>-16584.96268722</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>363</v>
@@ -640,7 +640,7 @@
         <v>-16584.96268722</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>364</v>
@@ -679,7 +679,7 @@
         <v>-20760.66218722</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>364</v>
@@ -718,7 +718,7 @@
         <v>-22348.50128722</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>362</v>
@@ -757,7 +757,7 @@
         <v>-28870.10518722</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>361</v>
@@ -796,7 +796,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>360</v>
@@ -835,7 +835,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>361</v>
@@ -874,7 +874,7 @@
         <v>-28847.41078722</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>361</v>
@@ -913,7 +913,7 @@
         <v>-32028.25328722</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>361</v>
@@ -952,7 +952,7 @@
         <v>-32027.25328722</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>360</v>
@@ -991,7 +991,7 @@
         <v>-34316.37158722</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>363</v>
@@ -1030,7 +1030,7 @@
         <v>-34316.37158722</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>361</v>
@@ -1069,7 +1069,7 @@
         <v>-34124.81078722</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>361</v>
@@ -1108,7 +1108,7 @@
         <v>-38469.49828722</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>363</v>
@@ -1147,7 +1147,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>361</v>
@@ -1186,7 +1186,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>364</v>
@@ -1225,7 +1225,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>364</v>
@@ -1264,7 +1264,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>364</v>
@@ -1303,7 +1303,7 @@
         <v>-32767.53848722</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>364</v>
@@ -1342,7 +1342,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>364</v>
@@ -1381,7 +1381,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>363</v>
@@ -1420,7 +1420,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>363</v>
@@ -1459,7 +1459,7 @@
         <v>-33868.17382968</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>363</v>
@@ -1498,7 +1498,7 @@
         <v>-20075.52517214</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>363</v>
@@ -1537,7 +1537,7 @@
         <v>-24037.45067214</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>366</v>
@@ -1576,7 +1576,7 @@
         <v>-24006.50427214</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>365</v>
@@ -1615,7 +1615,7 @@
         <v>-24350.26427214</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>366</v>
@@ -1654,7 +1654,7 @@
         <v>-20357.26427214</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>365</v>
@@ -1693,7 +1693,7 @@
         <v>-9333.011872139998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>368</v>
@@ -1732,7 +1732,7 @@
         <v>10306.71687691</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>369</v>
@@ -1882,7 +1882,7 @@
         <v>-15841.12982498</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1919,7 +1919,7 @@
         <v>-15841.12982498</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
         <v>-6756.571618279999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1993,7 +1993,7 @@
         <v>-6754.571618279999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2030,7 +2030,7 @@
         <v>-6754.571618279999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2067,7 +2067,7 @@
         <v>-12011.31431828</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2104,7 +2104,7 @@
         <v>-14472.54933719</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2141,7 +2141,7 @@
         <v>-17623.92703719</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2178,7 +2178,7 @@
         <v>-10146.57653719</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2215,7 +2215,7 @@
         <v>-10146.57653719</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
         <v>-10133.11143719</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2289,7 +2289,7 @@
         <v>-10133.11143719</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2326,7 +2326,7 @@
         <v>-10133.11143719</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
         <v>-24139.94453719</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2400,7 +2400,7 @@
         <v>-24140.94453719</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2437,7 +2437,7 @@
         <v>-24140.94453719</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
         <v>-24140.94453719</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2511,7 +2511,7 @@
         <v>-24140.94453719</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
         <v>-24140.94453719</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
         <v>-24140.94453719</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2624,7 +2624,9 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>369</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2661,7 +2663,9 @@
       <c r="H60" t="n">
         <v>1</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>368</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2696,9 +2700,11 @@
         <v>-24195.70283719</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>368</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2733,9 +2739,11 @@
         <v>-24195.70283719</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>369</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2770,9 +2778,11 @@
         <v>-25171.39523719</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>369</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2807,9 +2817,11 @@
         <v>-25171.39523719</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>368</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2844,9 +2856,11 @@
         <v>-25171.39523719</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>368</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2881,9 +2895,11 @@
         <v>-27468.71993719</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>368</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2918,9 +2934,11 @@
         <v>-27468.71993719</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>367</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2955,9 +2973,11 @@
         <v>-15849.74843612</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>367</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3436,7 +3456,7 @@
         <v>-18573.21373612</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3584,7 +3604,7 @@
         <v>-24514.98643612001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -6766,7 +6786,7 @@
         <v>-22458.96967334001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6803,7 +6823,7 @@
         <v>-22459.96967334001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6877,7 +6897,7 @@
         <v>-22380.49807334001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6914,7 +6934,7 @@
         <v>-22381.49807334001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6951,7 +6971,7 @@
         <v>-19535.54667334001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6988,7 +7008,7 @@
         <v>-19535.54667334001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7025,7 +7045,7 @@
         <v>-19535.54667334001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7062,7 +7082,7 @@
         <v>-16892.65157334001</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7099,7 +7119,7 @@
         <v>-17210.06057334001</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7136,7 +7156,7 @@
         <v>-16838.83577334001</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7173,7 +7193,7 @@
         <v>-16838.83577334001</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7210,7 +7230,7 @@
         <v>-16651.18777334001</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7247,7 +7267,7 @@
         <v>-16651.18777334001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7284,7 +7304,7 @@
         <v>-19067.62577334001</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7321,7 +7341,7 @@
         <v>-19067.62577334001</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7358,7 +7378,7 @@
         <v>-19067.62577334001</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7395,7 +7415,7 @@
         <v>-17310.15787334001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7432,7 +7452,7 @@
         <v>-17309.15787334001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7469,7 +7489,7 @@
         <v>-17310.15787334001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7506,7 +7526,7 @@
         <v>-17310.15787334001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7543,7 +7563,7 @@
         <v>-17309.15787334001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7802,7 +7822,7 @@
         <v>-24344.52677334001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7839,7 +7859,7 @@
         <v>-16471.30747334001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7913,7 +7933,7 @@
         <v>-19359.85837334001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7950,7 +7970,7 @@
         <v>-19359.85837334001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7987,7 +8007,7 @@
         <v>-18870.94467334001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8024,7 +8044,7 @@
         <v>-21304.15127334001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8061,7 +8081,7 @@
         <v>-21304.15127334001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8098,7 +8118,7 @@
         <v>-8690.062573340008</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8135,7 +8155,7 @@
         <v>-17103.08097334001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8172,7 +8192,7 @@
         <v>-18345.38797334001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8209,7 +8229,7 @@
         <v>-21095.74807334001</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8246,7 +8266,7 @@
         <v>-21095.74807334001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8283,7 +8303,7 @@
         <v>-21095.74807334001</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8320,7 +8340,7 @@
         <v>-18814.85957334001</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8357,7 +8377,7 @@
         <v>-18814.85957334001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8394,7 +8414,7 @@
         <v>-18813.85957334001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8653,7 +8673,7 @@
         <v>-22732.39417334001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8690,7 +8710,7 @@
         <v>-21033.68777334001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8727,7 +8747,7 @@
         <v>-21033.68777334001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8764,7 +8784,7 @@
         <v>-21033.68777334001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8838,7 +8858,7 @@
         <v>-18316.21334345001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8986,7 +9006,7 @@
         <v>-17130.67004508001</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9023,7 +9043,7 @@
         <v>-17130.67004508001</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9060,7 +9080,7 @@
         <v>-17128.67004508001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9097,7 +9117,7 @@
         <v>-53391.23605640001</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9134,7 +9154,7 @@
         <v>-53391.23605640001</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9171,7 +9191,7 @@
         <v>-53391.23605640001</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9430,7 +9450,7 @@
         <v>-50049.75278012002</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9467,7 +9487,7 @@
         <v>-50939.77728012002</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9504,7 +9524,7 @@
         <v>-50939.77728012002</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9874,7 +9894,7 @@
         <v>-44808.72928012002</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9911,7 +9931,7 @@
         <v>-48858.52658012001</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10207,7 +10227,7 @@
         <v>-46621.47478012002</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10244,7 +10264,7 @@
         <v>-46621.47478012002</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10392,11 +10412,9 @@
         <v>-51477.02268012002</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10431,11 +10449,9 @@
         <v>-51477.02268012002</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10470,11 +10486,9 @@
         <v>-51477.02268012002</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10509,11 +10523,9 @@
         <v>-51802.91318012002</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10659,11 +10671,9 @@
         <v>-43723.43508012002</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10698,11 +10708,9 @@
         <v>-41713.47358012002</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -11292,9 +11300,11 @@
         <v>-55120.54718012002</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>364</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -11588,11 +11598,9 @@
         <v>3554.493319879984</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11627,11 +11635,9 @@
         <v>-6501.568080120016</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11666,11 +11672,9 @@
         <v>-6501.568080120016</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11705,11 +11709,9 @@
         <v>-6501.568080120016</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11744,11 +11746,9 @@
         <v>-6502.568080120016</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11783,11 +11783,9 @@
         <v>-2876.364980120016</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11822,11 +11820,9 @@
         <v>-2876.364980120016</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -12009,11 +12005,9 @@
         <v>-9432.786380120016</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -12048,11 +12042,9 @@
         <v>-7224.317280120016</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -12087,11 +12079,9 @@
         <v>-7120.721080120016</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -12533,9 +12523,11 @@
         <v>-30002.34368012002</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>362</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12570,9 +12562,11 @@
         <v>-30003.34368012002</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>362</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12607,7 +12601,7 @@
         <v>-29929.39628012001</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>361</v>
@@ -12646,7 +12640,7 @@
         <v>-30029.14628012001</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>364</v>
@@ -12685,7 +12679,7 @@
         <v>-30028.02628012002</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>361</v>
@@ -12724,7 +12718,7 @@
         <v>-30028.02628012002</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>364</v>
@@ -12763,9 +12757,11 @@
         <v>-20928.14728012001</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>364</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -13725,11 +13721,9 @@
         <v>-22967.85228012001</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -14319,11 +14313,9 @@
         <v>-27065.90402372002</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -14358,11 +14350,9 @@
         <v>-26806.75192372002</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -14397,11 +14387,9 @@
         <v>-26806.75192372002</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -14436,11 +14424,9 @@
         <v>-26910.75192372002</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -14475,11 +14461,9 @@
         <v>-26910.75192372002</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -14514,11 +14498,9 @@
         <v>-27614.65162372002</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -14553,11 +14535,9 @@
         <v>-27096.83642372002</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -14592,11 +14572,9 @@
         <v>-27586.69392372002</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -14631,11 +14609,9 @@
         <v>-27586.69392372002</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -14670,11 +14646,9 @@
         <v>-27091.51072372002</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -14709,11 +14683,9 @@
         <v>-27091.51072372002</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -14785,11 +14757,9 @@
         <v>-34333.62382372002</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -20337,7 +20307,7 @@
         <v>-37624.44997446001</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20374,7 +20344,7 @@
         <v>-36344.44997446001</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -21077,7 +21047,7 @@
         <v>-35918.92294328001</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21114,7 +21084,7 @@
         <v>-35918.92294328001</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21188,7 +21158,7 @@
         <v>-35917.92294328001</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21225,7 +21195,7 @@
         <v>-35944.66084328001</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21262,7 +21232,7 @@
         <v>-35944.66084328001</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21410,7 +21380,7 @@
         <v>-41188.23294328</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21521,7 +21491,7 @@
         <v>-68663.10944328</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21558,7 +21528,7 @@
         <v>-68015.48384328</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21817,7 +21787,7 @@
         <v>-64021.37114328</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21854,7 +21824,7 @@
         <v>-64021.37114328</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21928,7 +21898,7 @@
         <v>-69413.69544328</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22150,7 +22120,7 @@
         <v>-73562.56024327999</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22261,7 +22231,7 @@
         <v>-68874.40964327999</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22298,7 +22268,7 @@
         <v>-70542.14914327998</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22372,7 +22342,7 @@
         <v>-70542.14914327998</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22409,7 +22379,7 @@
         <v>-70542.14914327998</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22483,9 +22453,11 @@
         <v>-70542.14914327998</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>368</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -22705,7 +22677,7 @@
         <v>-71153.85758149996</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22853,7 +22825,7 @@
         <v>-71844.33658149997</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22927,7 +22899,7 @@
         <v>-79443.59058149997</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22964,7 +22936,7 @@
         <v>-79787.65708149997</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23001,7 +22973,7 @@
         <v>-106687.9782815</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23040,7 +23012,9 @@
       <c r="H609" t="n">
         <v>1</v>
       </c>
-      <c r="I609" t="inlineStr"/>
+      <c r="I609" t="n">
+        <v>365</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -23075,7 +23049,7 @@
         <v>-106921.4036815</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23112,7 +23086,7 @@
         <v>-106920.4036815</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23149,7 +23123,7 @@
         <v>-113372.3272815</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23297,9 +23271,11 @@
         <v>-112649.6363814999</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>366</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -23334,9 +23310,11 @@
         <v>-114004.0520814999</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>368</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -23371,9 +23349,11 @@
         <v>-114004.0520814999</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>366</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -23408,7 +23388,7 @@
         <v>-113000.9771814999</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>366</v>
@@ -23521,9 +23501,11 @@
         <v>-113000.9771814999</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>366</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -23558,9 +23540,11 @@
         <v>-112999.9771814999</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>368</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -24113,9 +24097,11 @@
         <v>-114260.4372814999</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>368</v>
+      </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -24150,9 +24136,11 @@
         <v>-114260.4372814999</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>368</v>
+      </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -24187,9 +24175,11 @@
         <v>-114267.4372814999</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>368</v>
+      </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -24224,9 +24214,11 @@
         <v>-68875.48108149992</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>367</v>
+      </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -24261,9 +24253,11 @@
         <v>-69608.50888149992</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>368</v>
+      </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -24298,9 +24292,11 @@
         <v>-69608.50888149992</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>366</v>
+      </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -24335,9 +24331,11 @@
         <v>-69508.50888149992</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>366</v>
+      </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -24372,9 +24370,11 @@
         <v>-70008.50888149992</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>368</v>
+      </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -24409,9 +24409,11 @@
         <v>-71842.31478149992</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>367</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -24446,9 +24448,11 @@
         <v>-71982.31478149992</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>366</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -24483,9 +24487,11 @@
         <v>-71090.08378149992</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>365</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -24520,9 +24526,11 @@
         <v>-71241.08368149992</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>368</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -24557,9 +24565,11 @@
         <v>-71241.08368149992</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>366</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -25334,11 +25344,9 @@
         <v>-74237.70728149993</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -25447,11 +25455,9 @@
         <v>-58439.11748149993</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -32886,16 +32892,18 @@
         <v>234903.3962230601</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L875" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L875" t="n">
+        <v>1</v>
+      </c>
       <c r="M875" t="inlineStr"/>
     </row>
     <row r="876">
@@ -32921,11 +32929,15 @@
         <v>234903.3962230601</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -32954,11 +32966,15 @@
         <v>223976.6433230601</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -32987,11 +33003,15 @@
         <v>228955.0646230601</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -33020,11 +33040,15 @@
         <v>214445.0513230601</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -33053,11 +33077,15 @@
         <v>204061.8869230601</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -33086,11 +33114,15 @@
         <v>214559.2455230601</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -33119,11 +33151,15 @@
         <v>198824.3638230601</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -33152,11 +33188,15 @@
         <v>220696.4596230601</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -33189,7 +33229,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -33218,11 +33262,15 @@
         <v>221648.5367230601</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -33251,14 +33299,16 @@
         <v>224416.9105230601</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
-      <c r="L886" t="n">
-        <v>1</v>
-      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L886" t="inlineStr"/>
       <c r="M886" t="inlineStr"/>
     </row>
     <row r="887">
@@ -33284,7 +33334,7 @@
         <v>218372.8884230601</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -33317,7 +33367,7 @@
         <v>221047.4867230601</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -33350,7 +33400,7 @@
         <v>219157.4867230601</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -33383,7 +33433,7 @@
         <v>218055.9459230601</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33416,7 +33466,7 @@
         <v>218055.9459230601</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33449,7 +33499,7 @@
         <v>223106.9280230601</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33482,7 +33532,7 @@
         <v>237462.2144230601</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33515,7 +33565,7 @@
         <v>237462.2144230601</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33548,7 +33598,7 @@
         <v>218422.4808230601</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -33581,7 +33631,7 @@
         <v>220498.9500230601</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33614,7 +33664,7 @@
         <v>217689.1016230601</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33647,7 +33697,7 @@
         <v>226071.5557230601</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -33680,7 +33730,7 @@
         <v>224301.8099230601</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -33713,7 +33763,7 @@
         <v>208671.2423230601</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -33746,7 +33796,7 @@
         <v>209000.2423230601</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -33779,7 +33829,7 @@
         <v>209000.2423230601</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -33790,6 +33840,6 @@
       <c r="M902" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>